--- a/요구사항/요구사항 정의서.xlsx
+++ b/요구사항/요구사항 정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhj71\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bitProject\요구사항\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2118E29A-E541-430D-965A-4FB8FD48F4B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79F0111-8984-465C-80F1-31B388862B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B408F4A1-3961-43E4-8764-E7DA8E285174}"/>
+    <workbookView xWindow="150" yWindow="380" windowWidth="17370" windowHeight="7810" xr2:uid="{B408F4A1-3961-43E4-8764-E7DA8E285174}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -154,19 +154,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>매물의 [조회수], [장비등록일], [장비판매일]을 기록한다.</t>
-  </si>
-  <si>
-    <t>오른쪽 영역</t>
-  </si>
-  <si>
-    <t>동급 모델 표시를 해준다.</t>
-  </si>
-  <si>
-    <t>최근 본 매물이 화면 오른쪽에 있다. (아래)
-- 3개씩 5페이지 - 총 15개</t>
-  </si>
-  <si>
     <t xml:space="preserve">교수자, 학습자, 직원의 편리한 학습관리 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -605,10 +592,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>교수자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>수업관리</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1630,6 +1613,154 @@
   </si>
   <si>
     <t>mvc2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취업</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>취업센터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취업현황</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취업관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2420,13 +2551,280 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2436,69 +2834,6 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2508,215 +2843,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3034,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E7E940-4850-4B7A-A2C2-33C42108ACBA}">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:I16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G14:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3047,1593 +3187,1605 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
     </row>
     <row r="4" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="2" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
     </row>
     <row r="5" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="4">
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="93">
         <v>44044</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
     </row>
     <row r="6" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
     </row>
     <row r="7" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23" t="s">
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
+      <c r="H7" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="74"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="23" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
+      <c r="H8" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="74"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="23" customHeight="1" thickBot="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="30" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="96"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
+      <c r="H9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:25" ht="17.5" customHeight="1" thickBot="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
     </row>
     <row r="11" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="23" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
+      <c r="H11" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="74"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
     </row>
     <row r="12" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="23" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="23" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
     </row>
     <row r="14" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
     </row>
     <row r="15" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
     </row>
     <row r="16" spans="1:25" ht="23" customHeight="1" thickBot="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="39" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
     </row>
     <row r="17" spans="1:25" ht="23" customHeight="1" thickBot="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="39" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
     </row>
     <row r="18" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
     </row>
     <row r="19" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="42" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45" t="s">
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="46" t="s">
+      <c r="J19" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="49" t="s">
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="52" t="s">
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="U19" s="5"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
     </row>
     <row r="20" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="54"/>
       <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="53"/>
       <c r="L20" s="54"/>
       <c r="M20" s="54"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="60" t="s">
+      <c r="N20" s="55"/>
+      <c r="O20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P20" s="60" t="s">
+      <c r="P20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="60" t="s">
+      <c r="Q20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="60" t="s">
+      <c r="R20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="S20" s="60" t="s">
+      <c r="S20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="T20" s="61"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
     </row>
     <row r="21" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="62">
+      <c r="A21" s="5"/>
+      <c r="B21" s="11">
         <v>1</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="11">
         <v>1</v>
       </c>
-      <c r="D21" s="62">
+      <c r="D21" s="11">
         <v>1</v>
       </c>
-      <c r="E21" s="62">
+      <c r="E21" s="11">
         <v>1</v>
       </c>
-      <c r="F21" s="85" t="s">
+      <c r="F21" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+    </row>
+    <row r="22" spans="1:25" ht="17.5" thickBot="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+    </row>
+    <row r="23" spans="1:25" ht="17.5" thickBot="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+    </row>
+    <row r="24" spans="1:25" ht="17.5" thickBot="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+    </row>
+    <row r="25" spans="1:25" ht="17.5" thickBot="1">
+      <c r="A25" s="5"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+    </row>
+    <row r="26" spans="1:25" ht="17.5" thickBot="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+    </row>
+    <row r="27" spans="1:25" ht="17.5" thickBot="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+    </row>
+    <row r="28" spans="1:25" ht="17.5" thickBot="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+    </row>
+    <row r="29" spans="1:25" ht="17.5" thickBot="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="86" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21" s="66" t="s">
+      <c r="H29" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-    </row>
-    <row r="22" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="87" t="s">
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+    </row>
+    <row r="30" spans="1:25" ht="17.5" thickBot="1">
+      <c r="A30" s="5"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+    </row>
+    <row r="31" spans="1:25" ht="17.5" thickBot="1">
+      <c r="A31" s="5"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K31" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+    </row>
+    <row r="32" spans="1:25" ht="17.5" thickBot="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K32" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+    </row>
+    <row r="33" spans="1:25" ht="17.5" thickBot="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K33" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+    </row>
+    <row r="34" spans="1:25" ht="17.5" thickBot="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K34" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+    </row>
+    <row r="35" spans="1:25" ht="17.5" thickBot="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+    </row>
+    <row r="36" spans="1:25" ht="17.5" thickBot="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+    </row>
+    <row r="37" spans="1:25" ht="17.5" thickBot="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+    </row>
+    <row r="38" spans="1:25" ht="17.5" thickBot="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+    </row>
+    <row r="39" spans="1:25" ht="17.5" thickBot="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+    </row>
+    <row r="40" spans="1:25" ht="17.5" thickBot="1">
+      <c r="A40" s="5"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="89" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="K22" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-    </row>
-    <row r="23" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="J23" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="K23" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-    </row>
-    <row r="24" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="K24" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-    </row>
-    <row r="25" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="K25" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-    </row>
-    <row r="26" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="J26" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="K26" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-    </row>
-    <row r="27" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="87" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="J27" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="K27" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-    </row>
-    <row r="28" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="I28" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="K28" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-    </row>
-    <row r="29" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="J29" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="K29" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-    </row>
-    <row r="30" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="I30" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="J30" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="K30" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-    </row>
-    <row r="31" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="H31" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="J31" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="K31" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-    </row>
-    <row r="32" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="I32" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="J32" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="K32" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-    </row>
-    <row r="33" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A33" s="8"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="I33" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="J33" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="K33" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-    </row>
-    <row r="34" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="H34" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="J34" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="K34" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-    </row>
-    <row r="35" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="69"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-    </row>
-    <row r="36" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="70"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="69"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-    </row>
-    <row r="37" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A37" s="8"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="69"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-    </row>
-    <row r="38" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A38" s="8"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
-      <c r="Q38" s="78"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="78"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
-    </row>
-    <row r="39" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A39" s="8"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="78"/>
-      <c r="Q39" s="78"/>
-      <c r="R39" s="78"/>
-      <c r="S39" s="78"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-    </row>
-    <row r="40" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A40" s="8"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="77" t="s">
+      <c r="H40" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
-      <c r="Q40" s="78"/>
-      <c r="R40" s="78"/>
-      <c r="S40" s="78"/>
-      <c r="T40" s="79"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
     </row>
     <row r="41" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A41" s="8"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70" t="s">
+      <c r="A41" s="5"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="77" t="s">
+      <c r="H41" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
-      <c r="Q41" s="78"/>
-      <c r="R41" s="78"/>
-      <c r="S41" s="78"/>
-      <c r="T41" s="79"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
     </row>
     <row r="42" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A42" s="8"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-      <c r="Q42" s="82"/>
-      <c r="R42" s="82"/>
-      <c r="S42" s="82"/>
-      <c r="T42" s="83"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
     </row>
     <row r="43" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
     </row>
     <row r="44" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
     </row>
     <row r="45" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
     </row>
     <row r="46" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
     </row>
     <row r="47" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
     </row>
     <row r="48" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
     </row>
     <row r="49" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
     </row>
     <row r="50" spans="1:25" ht="17.5" thickBot="1">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
     </row>
     <row r="51" spans="1:25" ht="17.5" thickBot="1">
       <c r="A51" s="1"/>
@@ -4660,6 +4812,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B7:F13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:N20"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
     <mergeCell ref="H41:T41"/>
     <mergeCell ref="H42:T42"/>
     <mergeCell ref="H9:I10"/>
@@ -4676,43 +4863,9 @@
     <mergeCell ref="K33:N33"/>
     <mergeCell ref="K34:N34"/>
     <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:N20"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B7:F13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>